--- a/medicine/Premiers secours et secourisme/Fonctions_vitales/Fonctions_vitales.xlsx
+++ b/medicine/Premiers secours et secourisme/Fonctions_vitales/Fonctions_vitales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fonctions vitales sont, dans le domaine des premiers secours et en médecine d'urgence, les fonctions de l'organisme qui assurent la vie, et dont la défaillance entraîne le décès à court terme (quelques minutes).
 Ces fonctions englobent :
@@ -521,13 +533,49 @@
           <t>Évaluation des fonctions vitales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue deux types d'évaluation :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>On distingue deux types d'évaluation :
 l'évaluation vitale : il s'agit de déterminer si la fonction vitale fonctionne ou pas, ceci conditionne les gestes de premiers secours à effectuer, et l'alerte à transmettre aux secours ;
-l'évaluation fonctionnelle : si les fonctions vitales fonctionnent, on évalue leur degré de fonctionnement.
-Évaluation vitale
-L'évaluation vitale doit se faire en moins de 30 secondes.
+l'évaluation fonctionnelle : si les fonctions vitales fonctionnent, on évalue leur degré de fonctionnement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Évaluation des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Évaluation vitale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'évaluation vitale doit se faire en moins de 30 secondes.
 La première chose à faire est de parler à la victime. Si elle ne répond pas il faudra poursuivre l'examen de la conscience mais après avoir vérifié que la victime ne saigne pas de façon abondante (ref : référentiels PSC1 et SST)
 Si un saignement abondant est détecté, il faut l'arrêter immédiatement !
 Ensuite il faut évaluer la conscience. Si une personne bouge ou parle, elle est consciente. Si elle ne bouge pas et ne parle pas, il faut alors lui saisir la main et
@@ -546,10 +594,84 @@
 si la personne réagit (bouge, tousse), son cœur bat ; on continue le bouche-à-bouche pendant une minute, et on contrôle à nouveau la respiration (sauf si elle a repris spontanément) ;
 si la personne n'a aucune réaction, son cœur ne bat pas, il faut alors pratiquer la réanimation cardiopulmonaire.
 Voir l'article : bilan (premiers secours).
-Évaluation fonctionnelle
-Si la personne est consciente, ou qu'elle est inconsciente mais respire spontanément, on va évaluer le fonctionnement des fonctions vitales. Ceci permettra au médecin régulateur de juger de l'état de la personne, et de décider de la suite des opérations.
-Évaluation neurologique
-Niveau secouriste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évaluation des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évaluation fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si la personne est consciente, ou qu'elle est inconsciente mais respire spontanément, on va évaluer le fonctionnement des fonctions vitales. Ceci permettra au médecin régulateur de juger de l'état de la personne, et de décider de la suite des opérations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évaluation des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évaluation fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Évaluation neurologique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Niveau secouriste
 Si la personne parle, on lui pose des questions afin de déterminer
 si elle parle de manière cohérente ou pas ;
 si elle est orientée (elle sait où elle est, quelle date on est, ce qu'elle faisait) ;
@@ -577,9 +699,47 @@
 Hors urgence vitale, ils peuvent compléter l'évaluation en testant des réflexes.
 En milieu hospitalier, cette évaluation peut se compléter avec un électroencéphalogramme (EEG) et une IRM ou un scanner.
 Voir aussi
-État de conscience
-Évaluation de la respiration
-Cette évaluation se fait si la personne respire.
+État de conscience</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Évaluation des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Évaluation fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Évaluation de la respiration</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette évaluation se fait si la personne respire.
 Niveau secouriste
 On fait une évaluation chiffrée et qualitative de la ventilation :
 on détermine la fréquence ventilatoire (nombre de ventilations par minute) : on pose la main sur le haut du ventre (après avoir expliqué le geste) afin de percevoir les mouvements ventilatoires, et on les compte sur 30 secondes, puis on multiplie le résultat par deux (hors urgence, on peut aussi simplement compter sur une minute) ; on peut aussi simplement se fier au bruit (si la respiration est bruyante) ou sur les mouvements visibles (si elle est ample) ;
@@ -588,8 +748,47 @@
 La fréquence, l'amplitude, la régularité, la présence éventuelle de bruits constituent le bilan ventilatoire.
 Niveau médical
 Les médecins auscultent le dos et la poitrine afin d'écouter les bruits ventilatoires. Ils peuvent disposer des sondes dans le dispositif d'inhalation ou d'insufflation afin de déterminer la fraction inspirée en oxygène (FiO2) et la concentration de dioxyde de carbone expirée. Un dispositif lumineux, appelé oxymètre, donne la saturation du sang en dioxygène (SpO2).
-Évaluation de la circulation
-Niveau secouriste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Évaluation des fonctions vitales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Évaluation fonctionnelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Évaluation de la circulation</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Niveau secouriste
 On prend le pouls carotidien (après avoir expliqué le geste), et l'on détermine la fréquence (nombre de battements par minute : on compte le nombre de battements sur 30 secondes et on multiplie le résultat par deux) ainsi que la régularité (régulier ou irrégulier). Puis, on prend le pouls aux deux poignets, pour voir si on le sent ou pas.
 Si on ne sent pas le pouls carotidien alors que l'on sait que le cœur bat (la personne respire), on essaie de prendre le pouls fémoral.
 On observe la coloration de la peau, en particulier des muqueuses (intérieur des paupières, intérieur de la lèvre, ongles) chez les personnes à la peau sombre, et on note une couleur anormale : victime pâle, bleue (cyanosée), ou présentant des marbrures. On regarde si la personne présente des sueurs en absence de chaleur ou d'effort physique.
@@ -601,57 +800,61 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Fonctions_vitales</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Interaction entre les fonctions vitales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Fonctions_vitales</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Premiers secours et secourisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fonctions_vitales</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Maintien des fonctions vitales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Libération des voies aériennes
 position latérale de sécurité
